--- a/res/map.xlsx
+++ b/res/map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AC\an 2\PAOO\proiect paoo\BlueRidingHood\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73756862-A246-4E5D-B749-BA3809E88A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAEAC4B-916A-4164-B404-EB366677FB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B5D545CE-3ACD-412F-906D-4F63AD6BB899}"/>
   </bookViews>
@@ -71,7 +71,56 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -438,20 +487,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A5F536-1226-46BD-9315-15DAF0A5BED1}">
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ39" sqref="AJ39"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="AQ23" sqref="AQ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="33" max="36" width="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4" customWidth="1"/>
+    <col min="36" max="36" width="4.140625" customWidth="1"/>
     <col min="37" max="37" width="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -546,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -563,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -578,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -602,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -614,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>1</v>
@@ -629,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -640,27 +691,13 @@
       <c r="AE2">
         <v>0</v>
       </c>
-      <c r="AG2" s="1">
-        <v>104</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>109</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>117</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>121</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>126</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTIF(AG2:AK15,"&lt;&gt;")</f>
-        <v>28</v>
-      </c>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -704,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -754,15 +791,13 @@
       <c r="AE3">
         <v>0</v>
       </c>
-      <c r="AG3" s="1">
-        <v>213</v>
-      </c>
+      <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -770,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -782,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -827,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <v>3</v>
@@ -856,19 +891,13 @@
       <c r="AE4">
         <v>0</v>
       </c>
-      <c r="AG4" s="1">
-        <v>301</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>305</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>320</v>
-      </c>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -957,20 +986,18 @@
         <v>1</v>
       </c>
       <c r="AD5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
-      <c r="AG5" s="1">
-        <v>428</v>
-      </c>
+      <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1032,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <v>1</v>
@@ -1064,15 +1091,13 @@
       <c r="AE6">
         <v>0</v>
       </c>
-      <c r="AG6" s="1">
-        <v>519</v>
-      </c>
+      <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1149,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1158,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="AC7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -1166,17 +1191,13 @@
       <c r="AE7">
         <v>0</v>
       </c>
-      <c r="AG7" s="1">
-        <v>624</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>627</v>
-      </c>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1199,10 +1220,10 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1220,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -1270,21 +1291,13 @@
       <c r="AE8">
         <v>0</v>
       </c>
-      <c r="AG8" s="1">
-        <v>706</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>707</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>713</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>715</v>
-      </c>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1316,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1378,15 +1391,13 @@
       <c r="AE9">
         <v>0</v>
       </c>
-      <c r="AG9" s="1">
-        <v>809</v>
-      </c>
+      <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1436,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1454,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>1</v>
@@ -1475,24 +1486,18 @@
         <v>1</v>
       </c>
       <c r="AD10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
-      <c r="AG10" s="1">
-        <v>915</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>921</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>928</v>
-      </c>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1503,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1586,15 +1591,13 @@
       <c r="AE11">
         <v>0</v>
       </c>
-      <c r="AG11" s="1">
-        <v>105</v>
-      </c>
+      <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1688,15 +1691,13 @@
       <c r="AE12">
         <v>0</v>
       </c>
-      <c r="AG12" s="1">
-        <v>1110</v>
-      </c>
+      <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1749,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -1796,7 +1797,7 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1870,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z14">
         <v>1</v>
@@ -1890,15 +1891,13 @@
       <c r="AE14">
         <v>0</v>
       </c>
-      <c r="AG14" s="1">
-        <v>1323</v>
-      </c>
+      <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1921,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1939,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1954,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="S15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -1969,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="X15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>3</v>
@@ -1992,21 +1991,13 @@
       <c r="AE15">
         <v>1</v>
       </c>
-      <c r="AG15" s="1">
-        <v>146</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>1412</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>1417</v>
-      </c>
-      <c r="AJ15" s="1">
-        <v>1422</v>
-      </c>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2106,7 +2097,7 @@
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -2203,14 +2194,14 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0</v>
       </c>
@@ -2302,12 +2293,98 @@
         <v>29</v>
       </c>
       <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>2</v>
+      </c>
+      <c r="AL19">
+        <v>3</v>
+      </c>
+      <c r="AM19">
+        <v>4</v>
+      </c>
+      <c r="AN19">
+        <v>5</v>
+      </c>
+      <c r="AO19">
+        <v>6</v>
+      </c>
+      <c r="AP19">
+        <v>7</v>
+      </c>
+      <c r="AQ19">
+        <v>8</v>
+      </c>
+      <c r="AR19">
+        <v>9</v>
+      </c>
+      <c r="AS19">
+        <v>10</v>
+      </c>
+      <c r="AT19">
+        <v>11</v>
+      </c>
+      <c r="AU19">
+        <v>12</v>
+      </c>
+      <c r="AV19">
+        <v>13</v>
+      </c>
+      <c r="AW19">
+        <v>14</v>
+      </c>
+      <c r="AX19">
+        <v>15</v>
+      </c>
+      <c r="AY19">
+        <v>16</v>
+      </c>
+      <c r="AZ19">
+        <v>17</v>
+      </c>
+      <c r="BA19">
+        <v>18</v>
+      </c>
+      <c r="BB19">
+        <v>19</v>
+      </c>
+      <c r="BC19">
+        <v>20</v>
+      </c>
+      <c r="BD19">
+        <v>21</v>
+      </c>
+      <c r="BE19">
+        <v>22</v>
+      </c>
+      <c r="BF19">
+        <v>23</v>
+      </c>
+      <c r="BG19">
+        <v>24</v>
+      </c>
+      <c r="BH19">
+        <v>25</v>
+      </c>
+      <c r="BI19">
+        <v>26</v>
+      </c>
+      <c r="BJ19">
+        <v>27</v>
+      </c>
+      <c r="BK19">
+        <v>28</v>
+      </c>
+      <c r="BL19">
+        <v>29</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2402,12 +2479,101 @@
         <v>0</v>
       </c>
       <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2421,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2472,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="V21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>1</v>
@@ -2501,20 +2667,102 @@
       <c r="AE21">
         <v>0</v>
       </c>
-      <c r="AG21" s="1">
-        <v>103</v>
-      </c>
-      <c r="AH21" s="1">
-        <v>120</v>
-      </c>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>3</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
       <c r="AM21">
-        <f>COUNTIF(AG21:AK34,"&lt;&gt;")</f>
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>1</v>
+      </c>
+      <c r="AS21">
+        <v>1</v>
+      </c>
+      <c r="AT21">
+        <v>1</v>
+      </c>
+      <c r="AU21">
+        <v>1</v>
+      </c>
+      <c r="AV21">
+        <v>1</v>
+      </c>
+      <c r="AW21">
+        <v>1</v>
+      </c>
+      <c r="AX21">
+        <v>1</v>
+      </c>
+      <c r="AY21">
+        <v>3</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>3</v>
+      </c>
+      <c r="BB21">
+        <v>3</v>
+      </c>
+      <c r="BC21">
+        <v>3</v>
+      </c>
+      <c r="BD21">
+        <v>1</v>
+      </c>
+      <c r="BE21">
+        <v>1</v>
+      </c>
+      <c r="BF21">
+        <v>1</v>
+      </c>
+      <c r="BG21">
+        <v>1</v>
+      </c>
+      <c r="BH21">
+        <v>1</v>
+      </c>
+      <c r="BI21">
+        <v>1</v>
+      </c>
+      <c r="BJ21">
+        <v>1</v>
+      </c>
+      <c r="BK21">
+        <v>1</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2597,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -2608,15 +2856,102 @@
       <c r="AE22">
         <v>0</v>
       </c>
-      <c r="AG22" s="1">
-        <v>226</v>
-      </c>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22">
+        <v>2</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>1</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>1</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>1</v>
+      </c>
+      <c r="BL22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2654,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2663,7 +2998,7 @@
         <v>3</v>
       </c>
       <c r="P23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -2681,7 +3016,7 @@
         <v>3</v>
       </c>
       <c r="V23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W23">
         <v>1</v>
@@ -2705,26 +3040,107 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
-      <c r="AG23" s="1">
-        <v>311</v>
-      </c>
-      <c r="AH23" s="1">
-        <v>314</v>
-      </c>
-      <c r="AI23" s="1">
-        <v>320</v>
-      </c>
-      <c r="AJ23" s="1">
-        <v>328</v>
-      </c>
-      <c r="AK23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23">
+        <v>3</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+      <c r="AS23">
+        <v>1</v>
+      </c>
+      <c r="AT23">
+        <v>3</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>3</v>
+      </c>
+      <c r="AW23">
+        <v>1</v>
+      </c>
+      <c r="AX23">
+        <v>1</v>
+      </c>
+      <c r="AY23">
+        <v>1</v>
+      </c>
+      <c r="AZ23">
+        <v>1</v>
+      </c>
+      <c r="BA23">
+        <v>1</v>
+      </c>
+      <c r="BB23">
+        <v>1</v>
+      </c>
+      <c r="BC23">
+        <v>1</v>
+      </c>
+      <c r="BD23">
+        <v>1</v>
+      </c>
+      <c r="BE23">
+        <v>1</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>3</v>
+      </c>
+      <c r="BH23">
+        <v>3</v>
+      </c>
+      <c r="BI23">
+        <v>3</v>
+      </c>
+      <c r="BJ23">
+        <v>1</v>
+      </c>
+      <c r="BK23">
+        <v>1</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -2768,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2818,15 +3234,102 @@
       <c r="AE24">
         <v>0</v>
       </c>
-      <c r="AG24" s="1">
-        <v>413</v>
-      </c>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24">
+        <v>4</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>1</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>1</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>1</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>1</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2915,18 +3418,107 @@
         <v>0</v>
       </c>
       <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="1"/>
+      <c r="AH25">
         <v>5</v>
       </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="1">
-        <v>528</v>
-      </c>
-      <c r="AH25" s="1"/>
-      <c r="AK25" s="1"/>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>3</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>1</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>1</v>
+      </c>
+      <c r="AS25">
+        <v>1</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>1</v>
+      </c>
+      <c r="AV25">
+        <v>1</v>
+      </c>
+      <c r="AW25">
+        <v>1</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>1</v>
+      </c>
+      <c r="AZ25">
+        <v>1</v>
+      </c>
+      <c r="BA25">
+        <v>1</v>
+      </c>
+      <c r="BB25">
+        <v>1</v>
+      </c>
+      <c r="BC25">
+        <v>1</v>
+      </c>
+      <c r="BD25">
+        <v>1</v>
+      </c>
+      <c r="BE25">
+        <v>1</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>1</v>
+      </c>
+      <c r="BH25">
+        <v>1</v>
+      </c>
+      <c r="BI25">
+        <v>1</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>1</v>
+      </c>
+      <c r="BL25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -2934,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2946,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -3003,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="Z26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA26">
         <v>0</v>
@@ -3012,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="AC26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD26">
         <v>3</v>
@@ -3020,21 +3612,102 @@
       <c r="AE26">
         <v>0</v>
       </c>
-      <c r="AG26" s="1">
-        <v>601</v>
-      </c>
+      <c r="AG26" s="1"/>
       <c r="AH26">
-        <v>605</v>
-      </c>
-      <c r="AI26" s="1">
-        <v>624</v>
-      </c>
-      <c r="AJ26" s="1">
-        <v>627</v>
-      </c>
-      <c r="AK26" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>1</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>3</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>1</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>1</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>1</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>1</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>1</v>
+      </c>
+      <c r="BJ26">
+        <v>1</v>
+      </c>
+      <c r="BK26">
+        <v>1</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -3060,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -3087,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="R27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S27">
         <v>3</v>
@@ -3128,17 +3801,102 @@
       <c r="AE27">
         <v>0</v>
       </c>
-      <c r="AG27" s="1">
-        <v>707</v>
-      </c>
-      <c r="AH27" s="1">
-        <v>716</v>
-      </c>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27">
+        <v>7</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
+      </c>
+      <c r="AJ27">
+        <v>1</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>3</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>1</v>
+      </c>
+      <c r="AS27">
+        <v>3</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>1</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>3</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>1</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>1</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>1</v>
+      </c>
+      <c r="BD27">
+        <v>1</v>
+      </c>
+      <c r="BE27">
+        <v>1</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>1</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>1</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
+        <v>1</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -3194,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T28">
         <v>1</v>
@@ -3232,15 +3990,102 @@
       <c r="AE28">
         <v>0</v>
       </c>
-      <c r="AG28" s="1">
-        <v>817</v>
-      </c>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28">
+        <v>8</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>1</v>
+      </c>
+      <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
+        <v>1</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>1</v>
+      </c>
+      <c r="AV28">
+        <v>1</v>
+      </c>
+      <c r="AW28">
+        <v>1</v>
+      </c>
+      <c r="AX28">
+        <v>1</v>
+      </c>
+      <c r="AY28">
+        <v>1</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>1</v>
+      </c>
+      <c r="BB28">
+        <v>1</v>
+      </c>
+      <c r="BC28">
+        <v>1</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>1</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>1</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>1</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>3</v>
+      </c>
+      <c r="BL28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9</v>
       </c>
@@ -3266,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -3275,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>3</v>
@@ -3308,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X29">
         <v>1</v>
@@ -3334,19 +4179,102 @@
       <c r="AE29">
         <v>0</v>
       </c>
-      <c r="AG29" s="1">
-        <v>907</v>
-      </c>
+      <c r="AG29" s="1"/>
       <c r="AH29">
-        <v>910</v>
-      </c>
-      <c r="AI29" s="1">
-        <v>921</v>
-      </c>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>1</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>1</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>1</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>1</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>1</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>1</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>3</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10</v>
       </c>
@@ -3390,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P30">
         <v>1</v>
@@ -3408,7 +4336,7 @@
         <v>3</v>
       </c>
       <c r="U30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3440,17 +4368,102 @@
       <c r="AE30">
         <v>0</v>
       </c>
-      <c r="AG30" s="1">
-        <v>1005</v>
-      </c>
-      <c r="AH30" s="1">
-        <v>1019</v>
-      </c>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30">
+        <v>10</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>3</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+      <c r="AQ30">
+        <v>1</v>
+      </c>
+      <c r="AR30">
+        <v>1</v>
+      </c>
+      <c r="AS30">
+        <v>1</v>
+      </c>
+      <c r="AT30">
+        <v>1</v>
+      </c>
+      <c r="AU30">
+        <v>1</v>
+      </c>
+      <c r="AV30">
+        <v>1</v>
+      </c>
+      <c r="AW30">
+        <v>1</v>
+      </c>
+      <c r="AX30">
+        <v>1</v>
+      </c>
+      <c r="AY30">
+        <v>1</v>
+      </c>
+      <c r="AZ30">
+        <v>1</v>
+      </c>
+      <c r="BA30">
+        <v>1</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>1</v>
+      </c>
+      <c r="BD30">
+        <v>1</v>
+      </c>
+      <c r="BE30">
+        <v>1</v>
+      </c>
+      <c r="BF30">
+        <v>1</v>
+      </c>
+      <c r="BG30">
+        <v>1</v>
+      </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30">
+        <v>1</v>
+      </c>
+      <c r="BJ30">
+        <v>0</v>
+      </c>
+      <c r="BK30">
+        <v>3</v>
+      </c>
+      <c r="BL30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11</v>
       </c>
@@ -3485,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3518,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>1</v>
@@ -3544,17 +4557,102 @@
       <c r="AE31">
         <v>0</v>
       </c>
-      <c r="AG31" s="1">
-        <v>1110</v>
-      </c>
-      <c r="AH31" s="1">
-        <v>1121</v>
-      </c>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31">
+        <v>11</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>1</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>1</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
+        <v>0</v>
+      </c>
+      <c r="BH31">
+        <v>0</v>
+      </c>
+      <c r="BI31">
+        <v>1</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>0</v>
+      </c>
+      <c r="BL31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>12</v>
       </c>
@@ -3562,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3648,15 +4746,102 @@
       <c r="AE32">
         <v>1</v>
       </c>
-      <c r="AG32" s="1">
-        <v>1201</v>
-      </c>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32">
+        <v>12</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>1</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
+        <v>1</v>
+      </c>
+      <c r="AP32">
+        <v>1</v>
+      </c>
+      <c r="AQ32">
+        <v>1</v>
+      </c>
+      <c r="AR32">
+        <v>1</v>
+      </c>
+      <c r="AS32">
+        <v>1</v>
+      </c>
+      <c r="AT32">
+        <v>3</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>3</v>
+      </c>
+      <c r="AW32">
+        <v>1</v>
+      </c>
+      <c r="AX32">
+        <v>1</v>
+      </c>
+      <c r="AY32">
+        <v>1</v>
+      </c>
+      <c r="AZ32">
+        <v>1</v>
+      </c>
+      <c r="BA32">
+        <v>1</v>
+      </c>
+      <c r="BB32">
+        <v>1</v>
+      </c>
+      <c r="BC32">
+        <v>3</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>1</v>
+      </c>
+      <c r="BF32">
+        <v>1</v>
+      </c>
+      <c r="BG32">
+        <v>1</v>
+      </c>
+      <c r="BH32">
+        <v>1</v>
+      </c>
+      <c r="BI32">
+        <v>1</v>
+      </c>
+      <c r="BJ32">
+        <v>1</v>
+      </c>
+      <c r="BK32">
+        <v>1</v>
+      </c>
+      <c r="BL32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>13</v>
       </c>
@@ -3697,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -3750,15 +4935,102 @@
       <c r="AE33">
         <v>0</v>
       </c>
-      <c r="AG33" s="1">
-        <v>1312</v>
-      </c>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33">
+        <v>13</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>1</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>1</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>1</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>1</v>
+      </c>
+      <c r="BL33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>14</v>
       </c>
@@ -3769,7 +5041,7 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3784,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3844,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="AC34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD34">
         <v>3</v>
@@ -3852,18 +5124,102 @@
       <c r="AE34">
         <v>0</v>
       </c>
-      <c r="AG34" s="1">
-        <v>1402</v>
-      </c>
-      <c r="AH34" s="1">
-        <v>1407</v>
-      </c>
-      <c r="AI34" s="1">
-        <v>1427</v>
-      </c>
-      <c r="AK34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34">
+        <v>14</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>3</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>1</v>
+      </c>
+      <c r="AR34">
+        <v>1</v>
+      </c>
+      <c r="AS34">
+        <v>1</v>
+      </c>
+      <c r="AT34">
+        <v>1</v>
+      </c>
+      <c r="AU34">
+        <v>1</v>
+      </c>
+      <c r="AV34">
+        <v>1</v>
+      </c>
+      <c r="AW34">
+        <v>1</v>
+      </c>
+      <c r="AX34">
+        <v>1</v>
+      </c>
+      <c r="AY34">
+        <v>3</v>
+      </c>
+      <c r="AZ34">
+        <v>3</v>
+      </c>
+      <c r="BA34">
+        <v>3</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>1</v>
+      </c>
+      <c r="BD34">
+        <v>1</v>
+      </c>
+      <c r="BE34">
+        <v>1</v>
+      </c>
+      <c r="BF34">
+        <v>1</v>
+      </c>
+      <c r="BG34">
+        <v>1</v>
+      </c>
+      <c r="BH34">
+        <v>1</v>
+      </c>
+      <c r="BI34">
+        <v>1</v>
+      </c>
+      <c r="BJ34">
+        <v>1</v>
+      </c>
+      <c r="BK34">
+        <v>1</v>
+      </c>
+      <c r="BL34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
@@ -3957,40 +5313,162 @@
       <c r="AE35">
         <v>0</v>
       </c>
+      <c r="AH35">
+        <v>15</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BF35">
+        <v>0</v>
+      </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35">
+        <v>0</v>
+      </c>
+      <c r="BJ35">
+        <v>0</v>
+      </c>
+      <c r="BK35">
+        <v>0</v>
+      </c>
+      <c r="BL35">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B20:B35 AE21:AE35 C35:AD35 AF2:AF17 B1:AE16 AL3:XFD16 AN2:XFD2 AM1:XFD1 AL2 AE36:AF36 C20:AE20 AH29">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="0">
+  <conditionalFormatting sqref="B20:B35 AE21:AE35 C35:AD35 AF2:AF17 B1:AE16 AL3:XFD16 AN2:XFD2 AM1:XFD1 AL2 AE36:AF36 C20:AE20">
+    <cfRule type="containsText" dxfId="14" priority="22" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B35 AE21:AE35 C35:AD35 AF2:AF17 B1:AE16 AE36:AF36 C20:AE20 AH29">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="3">
+  <conditionalFormatting sqref="B20:B35 AE21:AE35 C35:AD35 AF2:AF17 B1:AE16 AE36:AF36 C20:AE20">
+    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:AE16 B20:AE35 AH29">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="3">
+  <conditionalFormatting sqref="B1:AE16 B20:AE35">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:AE16">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:AE35 AH29">
+  <conditionalFormatting sqref="B20:AE35">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="5">
+      <formula>NOT(ISERROR(SEARCH("5",B20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI20:AI35 BL21:BL35 AJ35:BK35 AJ20:BL20">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",AI20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI20:AI35 BL21:BL35 AJ35:BK35 AJ20:BL20">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",AI20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",AI20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI20:BL35">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",AI20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",AI20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",AI20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI20:BL35">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="5">
-      <formula>NOT(ISERROR(SEARCH("5",B20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("5",AI20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
